--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/产成品.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/产成品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>13.27191</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.14542</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.05419</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00403</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.80683</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.75543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.15892</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.47624</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.00171</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.97093</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.72479</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.47671</v>
-      </c>
-      <c r="N2" t="n">
-        <v>22.34446</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.28971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.4763</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>19.40381</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.13464</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>4.16351</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.09782</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.02072</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.42837</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.12832</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.12424</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>23.44885</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>10.11682</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.40767</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.03529</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>333.29229</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>32.13981</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02338</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.599019999999999</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.17229</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>28.01883</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.51991</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.591200000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>16.81464</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8.22692</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9.37346</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.34519</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20.83626</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.68601</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.44141</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.06993000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.854649999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33.65175</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.63776</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.16993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.70318</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.92531</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.06181</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.20842</v>
-      </c>
-      <c r="N3" t="n">
-        <v>38.48313</v>
-      </c>
-      <c r="O3" t="n">
-        <v>16.40748</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.28441</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25.4973</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.78036</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>6.24766</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01253</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.09403</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.71605</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.21979</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13.97857</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>33.84508</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13.03656</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.50729</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00283</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>528.1497000000001</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>56.26817</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02513</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.20053</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>31.59645</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>44.59913</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.08271</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12.12564</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>27.89353</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>10.45854</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19.66608</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.8743</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>29.49153</v>
-      </c>
-      <c r="C4" t="n">
-        <v>32.49741</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.6191</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.34605</v>
-      </c>
-      <c r="G4" t="n">
-        <v>48.10737</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.22974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16.68373</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.93577</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.20998</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.72933</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7.70934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>55.68848</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.95656</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.41732</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>37.70249</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11.83917</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>7.80909</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00224</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.09154</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.88918</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.20087</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17.70066</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>47.79543</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16.98801</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.4511</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>736.76951</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>83.58362</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.00556</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.25909</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>45.89121</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>58.63219</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.45318</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17.46572</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38.72803</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>12.95433</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>26.17098</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.49731</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
